--- a/redirects.xlsx.xlsx
+++ b/redirects.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe-my.sharepoint.com/personal/ramalakshmi_adobe_com/Documents/Documents/Franklin Enablement/my-first-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC10484FA1D8475E5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAF87B5C-C2DF-4E7E-A01B-47D383D6719D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC10484FA1D8475E5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4373B97-C836-4203-B41A-6096AE638D4C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,20 +36,20 @@
     <t>/code</t>
   </si>
   <si>
-    <t>https://github.com/ksramalakshmiadobe/my-first-website</t>
-  </si>
-  <si>
     <t>/search</t>
   </si>
   <si>
     <t>www.google.com</t>
+  </si>
+  <si>
+    <t>www.github.com/ksramalakshmiadobe/my-first-website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +61,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,9 +95,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -106,6 +115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,11 +392,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -391,22 +404,24 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{96DC3AD0-FF2B-41D8-B561-91E3FF6D2401}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{F93FFF01-8F03-415A-B42B-E44892701256}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>